--- a/数据库内容.xlsx
+++ b/数据库内容.xlsx
@@ -1,48 +1,723 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28128" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="采集设备ID表" sheetId="1" r:id="rId1"/>
+    <sheet name="灌溉设备表" sheetId="2" r:id="rId2"/>
+    <sheet name="用户表" sheetId="3" r:id="rId3"/>
+    <sheet name="业务表" sheetId="4" r:id="rId4"/>
+    <sheet name="农作物对照表" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+  <si>
+    <t>设备ID（16进制）</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>湿度</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>高8位</t>
+  </si>
+  <si>
+    <t>低8位</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>网关来源</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>bx</t>
+  </si>
+  <si>
+    <t>用户ID（电话）</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>业务ID（10位）</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>用户业务序号（10位）</t>
+  </si>
+  <si>
+    <t>用户网关地址</t>
+  </si>
+  <si>
+    <t>当前业务种植种类</t>
+  </si>
+  <si>
+    <t>当前农作物状态</t>
+  </si>
+  <si>
+    <t>采集ID</t>
+  </si>
+  <si>
+    <t>采集湿度</t>
+  </si>
+  <si>
+    <t>采集温度</t>
+  </si>
+  <si>
+    <t>灌溉ID</t>
+  </si>
+  <si>
+    <t>灌溉状态</t>
+  </si>
+  <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>156 **** ****</t>
+  </si>
+  <si>
+    <t>农作物ID（5位）</t>
+  </si>
+  <si>
+    <t>农作物名字</t>
+  </si>
+  <si>
+    <t>农作物PH范围</t>
+  </si>
+  <si>
+    <t>湿度范围</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>水稻</t>
+  </si>
+  <si>
+    <t>6.0-7.0</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>花生</t>
+  </si>
+  <si>
+    <t>5.0-6.0</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>粟</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>0.50-0.70</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>西瓜</t>
+  </si>
+  <si>
+    <t>0.40-0.50</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>00007</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>5.0-5.5</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>甘蓝</t>
+  </si>
+  <si>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>大豆</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>马铃薯</t>
+  </si>
+  <si>
+    <t>4.8-5.4</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>0.60-0.80</t>
+  </si>
+  <si>
+    <t>00012</t>
+  </si>
+  <si>
+    <t>甘蔗</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>橙、柑</t>
+  </si>
+  <si>
+    <t>5.0-7.0</t>
+  </si>
+  <si>
+    <t>00014</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>荔枝</t>
+  </si>
+  <si>
+    <t>00016</t>
+  </si>
+  <si>
+    <t>小白菜</t>
+  </si>
+  <si>
+    <t>00017</t>
+  </si>
+  <si>
+    <t>草莓</t>
+  </si>
+  <si>
+    <t>5.8-7.0</t>
+  </si>
+  <si>
+    <t>00018</t>
+  </si>
+  <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>0.75-0.85</t>
+  </si>
+  <si>
+    <t>00019</t>
+  </si>
+  <si>
+    <t>灵芝</t>
+  </si>
+  <si>
+    <t>0.90-0.95</t>
+  </si>
+  <si>
+    <t>00020</t>
+  </si>
+  <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
+    <t>0.70-0.80</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>茄子</t>
+  </si>
+  <si>
+    <t>0.50-0.60</t>
+  </si>
+  <si>
+    <t>00022</t>
+  </si>
+  <si>
+    <t>辣椒</t>
+  </si>
+  <si>
+    <t>00023</t>
+  </si>
+  <si>
+    <t>西葫芦</t>
+  </si>
+  <si>
+    <t>00024</t>
+  </si>
+  <si>
+    <t>甜瓜</t>
+  </si>
+  <si>
+    <t>00025</t>
+  </si>
+  <si>
+    <t>豇豆</t>
+  </si>
+  <si>
+    <t>00026</t>
+  </si>
+  <si>
+    <t>四季豆</t>
+  </si>
+  <si>
+    <t>00027</t>
+  </si>
+  <si>
+    <t>扁豆</t>
+  </si>
+  <si>
+    <t>00028</t>
+  </si>
+  <si>
+    <t>毛豆</t>
+  </si>
+  <si>
+    <t>00029</t>
+  </si>
+  <si>
+    <t>豌豆</t>
+  </si>
+  <si>
+    <t>00030</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>00032</t>
+  </si>
+  <si>
+    <t>00033</t>
+  </si>
+  <si>
+    <t>00034</t>
+  </si>
+  <si>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>00036</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +725,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1328,628 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="22.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="17.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="18.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>